--- a/final assignment/data/optimize_results/results_scenario_1_seed_3.xlsx
+++ b/final assignment/data/optimize_results/results_scenario_1_seed_3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -644,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -659,13 +659,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -677,61 +677,61 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W2" t="n">
         <v>3</v>
       </c>
-      <c r="S2" t="n">
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
         <v>3</v>
       </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="AC2" t="n">
         <v>7</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>129065841.5638247</v>
+        <v>60717312.84309486</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>121701716.6746137</v>
+        <v>250770798.3484958</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1376600000</v>
+        <v>812000000</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -769,22 +769,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -796,82 +796,82 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>3</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB3" t="n">
         <v>9</v>
       </c>
-      <c r="AA3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
         <v>8</v>
       </c>
-      <c r="AC3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2</v>
-      </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>8463044.286018342</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>130919728.8845366</v>
+        <v>88429031.37443781</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0007857656434289912</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6175375.928799104</v>
+        <v>13026956.19290888</v>
       </c>
       <c r="AK3" t="n">
-        <v>118700628.2951322</v>
+        <v>157923303.3935404</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.000785607036290872</v>
+        <v>0.01053808295235088</v>
       </c>
       <c r="AM3" t="n">
-        <v>438700000</v>
+        <v>619900000</v>
       </c>
       <c r="AN3" t="n">
-        <v>341.4609375811911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -879,34 +879,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -921,76 +921,76 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
         <v>8</v>
       </c>
-      <c r="AA4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3</v>
-      </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>259975439.706553</v>
+        <v>118857792.0372204</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>4739252.147395839</v>
       </c>
       <c r="AK4" t="n">
-        <v>325375121.8441703</v>
+        <v>129745367.5021485</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.003984213260205713</v>
       </c>
       <c r="AM4" t="n">
-        <v>146000000</v>
+        <v>1115300000</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -1034,70 +1034,70 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>9</v>
+      </c>
+      <c r="V5" t="n">
         <v>6</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>7</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
         <v>4</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>10</v>
       </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>60717312.84309486</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>140822678.0004261</v>
+        <v>250236372.239363</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>862300000</v>
+        <v>1652100000</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1168,58 +1168,58 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF6" t="n">
         <v>7</v>
       </c>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>2</v>
-      </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>155040808.5678577</v>
+        <v>128446235.0622317</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>283216167.5423187</v>
+        <v>113553565.2326988</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>267200000</v>
+        <v>333100000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>916.9388099742143</v>
       </c>
     </row>
     <row r="7">
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -1290,76 +1290,76 @@
         <v>1</v>
       </c>
       <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
         <v>3</v>
       </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
       <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="n">
         <v>6</v>
       </c>
-      <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>134644726.2576002</v>
+        <v>149071578.869657</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16823576.25305859</v>
+        <v>33087439.76389944</v>
       </c>
       <c r="AK7" t="n">
-        <v>73315450.27094865</v>
+        <v>106358076.754733</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.001921578948852045</v>
+        <v>0.01007058234560448</v>
       </c>
       <c r="AM7" t="n">
-        <v>997200000</v>
+        <v>1191900000</v>
       </c>
       <c r="AN7" t="n">
-        <v>922.2940192301484</v>
+        <v>780.3867218183503</v>
       </c>
     </row>
     <row r="8">
@@ -1367,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1376,25 +1376,25 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -1406,82 +1406,82 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
         <v>4</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
         <v>4</v>
       </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>6</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>4</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
       <c r="AB8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="n">
         <v>9</v>
       </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>6</v>
-      </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>157070751.6108724</v>
+        <v>82177854.37813279</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5810488.971942814</v>
+        <v>7100348.70977044</v>
       </c>
       <c r="AK8" t="n">
-        <v>144638102.1054265</v>
+        <v>174054270.8168038</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0005846761316371583</v>
+        <v>0.0008738092090977568</v>
       </c>
       <c r="AM8" t="n">
-        <v>290400000</v>
+        <v>1049400000</v>
       </c>
       <c r="AN8" t="n">
-        <v>2742.301431288642</v>
+        <v>265.7086642157706</v>
       </c>
     </row>
     <row r="9">
@@ -1489,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1525,85 +1525,85 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>85264360.79025151</v>
+        <v>268687241.7029645</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17264596.58220052</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>106547043.0873263</v>
+        <v>177331516.2411333</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0168418424499347</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1361100000</v>
+        <v>290400000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>613.2436064806355</v>
       </c>
     </row>
     <row r="10">
@@ -1614,40 +1614,40 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1656,76 +1656,320 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA10" t="n">
         <v>4</v>
       </c>
-      <c r="T10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
       <c r="AB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="n">
         <v>7</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>3</v>
       </c>
       <c r="AD10" t="n">
         <v>9</v>
       </c>
       <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>238274367.9378835</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6916614.109465618</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>100759376.1749364</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0006637797750694982</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>770100000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>324.058893803773</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
         <v>3</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>102192937.5553315</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>14481051.71566353</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>129745367.5021485</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.01227510206152276</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>916200000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
         <v>7</v>
       </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>154813143.3864306</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>97105266.60422453</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>795000000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
+      <c r="Y12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>168897725.9290959</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7865500.237934418</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>99685318.93337613</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.0009103546306893295</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>825700000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1428.292229744181</v>
       </c>
     </row>
   </sheetData>
